--- a/config_9.7/activity_ty_task_config.xlsx
+++ b/config_9.7/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -2098,10 +2098,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>96,97,98,99,100,101,102,103,104,107,108,109</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2458,6 +2454,10 @@
   </si>
   <si>
     <t>129,130,131,132,133,134,135,136,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3039,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3333,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3660,8 +3660,8 @@
   <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6099,7 +6099,7 @@
         <v>264</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6359,7 +6359,7 @@
         <v>293</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6932,7 +6932,7 @@
         <v>347</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H119" s="42" t="s">
         <v>358</v>
@@ -7019,7 +7019,7 @@
         <v>359</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -7033,19 +7033,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -7059,19 +7059,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7085,19 +7085,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H123" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7111,19 +7111,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7137,19 +7137,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7163,19 +7163,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7189,19 +7189,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7215,19 +7215,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7241,19 +7241,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7267,19 +7267,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7293,19 +7293,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7319,19 +7319,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7345,19 +7345,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7371,19 +7371,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7397,19 +7397,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7423,19 +7423,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7449,19 +7449,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7475,19 +7475,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
